--- a/jpcore-r4/feature/swg1-CodeSystem修正/observations-summary.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationLabResultCode_VS (preferred)</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationLabResultCode_VS (preferred)</t>
   </si>
   <si>
     <t>dateTime, Period, Timing</t>
@@ -83,7 +83,7 @@
     <t>null#physical-findings</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PhysicalExamCode_VS (preferred)</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PhysicalExamCode_VS (preferred)</t>
   </si>
   <si>
     <t>dateTime, Period</t>
@@ -101,7 +101,7 @@
     <t>Observation Category Codes#social-history</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationSocialHistoryCode_VS (preferred)</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationSocialHistoryCode_VS (preferred)</t>
   </si>
 </sst>
 </file>
